--- a/src/test/resources/Tests/PersonCreationDeepank.xlsx
+++ b/src/test/resources/Tests/PersonCreationDeepank.xlsx
@@ -41,45 +41,27 @@
     <t>username</t>
   </si>
   <si>
-    <t>login_UserName</t>
-  </si>
-  <si>
     <t>Enter User Name</t>
   </si>
   <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>login_Password</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
     <t>Click</t>
   </si>
   <si>
-    <t>login_loginbtn</t>
-  </si>
-  <si>
     <t>Click Login button</t>
   </si>
   <si>
-    <t>Home_AllTab</t>
-  </si>
-  <si>
     <t>Click All Tab</t>
   </si>
   <si>
-    <t>AllTab_Persons</t>
-  </si>
-  <si>
     <t>Click Persons Link</t>
   </si>
   <si>
-    <t>Person_Newbutton</t>
-  </si>
-  <si>
     <t>Click New Button</t>
   </si>
   <si>
@@ -89,72 +71,48 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Person_Title</t>
-  </si>
-  <si>
     <t>Enter Title</t>
   </si>
   <si>
     <t>FirstName</t>
   </si>
   <si>
-    <t>Person_FirstName</t>
-  </si>
-  <si>
     <t>Enter First Name</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>Person_LastName</t>
-  </si>
-  <si>
     <t>Enter Last Name</t>
   </si>
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Person_DateofBirth</t>
-  </si>
-  <si>
     <t>Enter DOB</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
-    <t>Person_Language</t>
-  </si>
-  <si>
     <t>Enter Language</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Person_Gender</t>
-  </si>
-  <si>
     <t>Select Gender</t>
   </si>
   <si>
     <t>Ethnicity</t>
   </si>
   <si>
-    <t>Person_Ethnicity</t>
-  </si>
-  <si>
     <t>Select Ethnicity</t>
   </si>
   <si>
     <t>PrimaryRace</t>
   </si>
   <si>
-    <t>Person_RacePrimary</t>
-  </si>
-  <si>
     <t>Select Primary Race</t>
   </si>
   <si>
@@ -164,24 +122,15 @@
     <t>SecondaryRace</t>
   </si>
   <si>
-    <t>Person_RaceSecondary</t>
-  </si>
-  <si>
     <t>Click Save</t>
   </si>
   <si>
-    <t>Person_Save</t>
-  </si>
-  <si>
     <t>verifyExpected</t>
   </si>
   <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>Person_PersonName</t>
-  </si>
-  <si>
     <t>Verify Person Creation</t>
   </si>
   <si>
@@ -224,42 +173,24 @@
     <t>Deepank Devate</t>
   </si>
   <si>
-    <t>Persons_Person_Type</t>
-  </si>
-  <si>
     <t>Click New Person Type</t>
   </si>
   <si>
-    <t>Persons_Record_Type</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
     <t>Select Record Type</t>
   </si>
   <si>
-    <t>Persons_Person_Type_Save</t>
-  </si>
-  <si>
     <t>RecordType</t>
   </si>
   <si>
-    <t>Persons_Person_Type_Continue</t>
-  </si>
-  <si>
     <t>Click Continue</t>
   </si>
   <si>
-    <t>Person_Type_Recent_Items</t>
-  </si>
-  <si>
     <t>Click Recent Items</t>
   </si>
   <si>
-    <t>Persons_New_Case</t>
-  </si>
-  <si>
     <t>Click New Case</t>
   </si>
   <si>
@@ -269,13 +200,82 @@
     <t>Kent</t>
   </si>
   <si>
-    <t>New_Case_County</t>
-  </si>
-  <si>
     <t>Select New County</t>
   </si>
   <si>
-    <t>New_Case_Save</t>
+    <t>Login_Username_Text</t>
+  </si>
+  <si>
+    <t>Login_Password_Text</t>
+  </si>
+  <si>
+    <t>Login_Login_Button</t>
+  </si>
+  <si>
+    <t>Home_Alltabs_Tab</t>
+  </si>
+  <si>
+    <t>AllTabs_Persons_Link</t>
+  </si>
+  <si>
+    <t>Persons_New_Button</t>
+  </si>
+  <si>
+    <t>Persons_Title_List</t>
+  </si>
+  <si>
+    <t>Persons_FirstName_Text</t>
+  </si>
+  <si>
+    <t>Persons_LastName_Text</t>
+  </si>
+  <si>
+    <t>Persons_DateofBirth_Text</t>
+  </si>
+  <si>
+    <t>Persons_Language_List</t>
+  </si>
+  <si>
+    <t>Persons_Gender_List</t>
+  </si>
+  <si>
+    <t>Persons_Ethnicity_List</t>
+  </si>
+  <si>
+    <t>Persons_RacePrimary_List</t>
+  </si>
+  <si>
+    <t>Persons_RaceSecondary_List</t>
+  </si>
+  <si>
+    <t>Persons_Save_Button</t>
+  </si>
+  <si>
+    <t>Persons_PersonName</t>
+  </si>
+  <si>
+    <t>Persons_NewPersonType_Button</t>
+  </si>
+  <si>
+    <t>Persons_RecordType_List</t>
+  </si>
+  <si>
+    <t>Persons_PersonTypeContinue_Button</t>
+  </si>
+  <si>
+    <t>Persons_PersonTypeSave_Button</t>
+  </si>
+  <si>
+    <t>Persons_RecentItems_Link</t>
+  </si>
+  <si>
+    <t>Persons_New_Case_Button</t>
+  </si>
+  <si>
+    <t>Cases_County_List</t>
+  </si>
+  <si>
+    <t>Cases_Save_Button</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="12.75"/>
@@ -707,7 +707,7 @@
     <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="23.28515625" style="2"/>
   </cols>
@@ -740,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -754,13 +754,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -768,14 +768,14 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,14 +783,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -798,14 +798,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -813,14 +813,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -828,16 +828,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,13 +865,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,13 +882,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -896,16 +896,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -913,16 +913,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,16 +930,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -947,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -964,16 +964,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -981,14 +981,14 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -996,16 +996,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1013,14 +1013,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1028,16 +1028,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1045,14 +1045,14 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1060,14 +1060,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1075,14 +1075,14 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1090,14 +1090,14 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1122,14 +1122,14 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.75"/>
@@ -1167,49 +1167,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="26.25">
@@ -1217,46 +1217,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Tests/PersonCreationDeepank.xlsx
+++ b/src/test/resources/Tests/PersonCreationDeepank.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="93">
   <si>
     <t>Script</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Asian</t>
   </si>
   <si>
-    <t>White;Asian;American Indian or Alaskan Native</t>
-  </si>
-  <si>
     <t>Deepank Devate</t>
   </si>
   <si>
@@ -276,6 +273,27 @@
   </si>
   <si>
     <t>Cases_Save_Button</t>
+  </si>
+  <si>
+    <t>setVariable</t>
+  </si>
+  <si>
+    <t>Cases_CaseName_Text</t>
+  </si>
+  <si>
+    <t>Save Case ID</t>
+  </si>
+  <si>
+    <t>DyanamicData_CaseID</t>
+  </si>
+  <si>
+    <t>White;American Indian or Alaskan Native</t>
+  </si>
+  <si>
+    <t>Persons_GeneratePID_Button</t>
+  </si>
+  <si>
+    <t>Click Generate PID</t>
   </si>
 </sst>
 </file>
@@ -696,17 +714,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="23.28515625" style="2"/>
@@ -740,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -757,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -772,7 +790,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -787,7 +805,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -802,7 +820,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -817,7 +835,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -834,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -851,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
@@ -868,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>22</v>
@@ -885,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>24</v>
@@ -902,7 +920,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>26</v>
@@ -919,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>28</v>
@@ -936,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>30</v>
@@ -953,7 +971,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>32</v>
@@ -970,7 +988,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>35</v>
@@ -985,7 +1003,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>35</v>
@@ -1002,7 +1020,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>38</v>
@@ -1017,10 +1035,10 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1028,16 +1046,14 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1045,14 +1061,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1064,10 +1082,10 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1079,10 +1097,10 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1094,10 +1112,10 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1105,16 +1123,14 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1122,14 +1138,48 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>35</v>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1141,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.75"/>
@@ -1162,10 +1212,12 @@
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="14.7109375" style="2"/>
+    <col min="14" max="15" width="14.7109375" style="2"/>
+    <col min="16" max="16" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="14.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1206,13 +1258,16 @@
         <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="26.25">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="26.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1247,17 +1302,18 @@
         <v>49</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="N2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P2" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
